--- a/simulations/cleaned_inclusion_exclusion/Menon_2022 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Menon_2022 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,10 +713,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.5675675675675675</v>
+        <v>0.581081081081081</v>
       </c>
       <c r="D3">
-        <v>0.8918918918918919</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="E3">
         <v>0.972972972972973</v>
@@ -728,16 +728,16 @@
         <v>0.9864864864864865</v>
       </c>
       <c r="H3">
-        <v>0.6174358974358974</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="I3">
-        <v>0.1000239973602904</v>
+        <v>0.09352971173170951</v>
       </c>
       <c r="J3">
-        <v>0.472972972972973</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="K3">
-        <v>127.6216216216216</v>
+        <v>121.7702702702703</v>
       </c>
       <c r="L3">
         <v>7</v>
@@ -755,34 +755,34 @@
         <v>66</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R3">
         <v>23</v>
       </c>
       <c r="S3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T3">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="U3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V3">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="W3">
         <v>878</v>
       </c>
       <c r="X3">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="Y3">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="Z3">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AA3">
         <v>67</v>
@@ -800,19 +800,19 @@
         <v>8</v>
       </c>
       <c r="AF3">
-        <v>0.983352</v>
+        <v>0.990011</v>
       </c>
       <c r="AG3">
         <v>0.974473</v>
       </c>
       <c r="AH3">
-        <v>0.945616</v>
+        <v>0.948946</v>
       </c>
       <c r="AI3">
-        <v>0.895671</v>
+        <v>0.874584</v>
       </c>
       <c r="AJ3">
-        <v>0.82131</v>
+        <v>0.82242</v>
       </c>
     </row>
   </sheetData>
